--- a/test-1/NUTS-3.xlsx
+++ b/test-1/NUTS-3.xlsx
@@ -35,7 +35,7 @@
     <t>pcsp</t>
   </si>
   <si>
-    <t>NUTS_2</t>
+    <t>NUTS2</t>
   </si>
   <si>
     <t>1</t>
@@ -80,67 +80,67 @@
     <t>14</t>
   </si>
   <si>
+    <t>Jihočeský</t>
+  </si>
+  <si>
+    <t>Jihomoravský</t>
+  </si>
+  <si>
+    <t>Karlovarský</t>
+  </si>
+  <si>
+    <t>Královéhradecký</t>
+  </si>
+  <si>
+    <t>Liberecký</t>
+  </si>
+  <si>
+    <t>Moravskoslezský</t>
+  </si>
+  <si>
+    <t>Olomoucký</t>
+  </si>
+  <si>
+    <t>Pardubický</t>
+  </si>
+  <si>
+    <t>Plzeňský</t>
+  </si>
+  <si>
     <t>Praha</t>
   </si>
   <si>
     <t>Středočeský</t>
   </si>
   <si>
-    <t>Jihočeský</t>
-  </si>
-  <si>
-    <t>Plzeňský</t>
-  </si>
-  <si>
-    <t>Karlovarský</t>
-  </si>
-  <si>
     <t>Ústecký</t>
   </si>
   <si>
-    <t>Liberecký</t>
-  </si>
-  <si>
-    <t>Královéhradecký</t>
-  </si>
-  <si>
-    <t>Pardubický</t>
-  </si>
-  <si>
     <t>Vysočina</t>
   </si>
   <si>
-    <t>Jihomoravský</t>
-  </si>
-  <si>
-    <t>Olomoucký</t>
-  </si>
-  <si>
     <t>Zlínský</t>
   </si>
   <si>
-    <t>Moravskoslezský</t>
+    <t>Jihozápad</t>
+  </si>
+  <si>
+    <t>Jihovýchod</t>
+  </si>
+  <si>
+    <t>Severozápad</t>
+  </si>
+  <si>
+    <t>Severovýchod</t>
+  </si>
+  <si>
+    <t>Moravskoslezsko</t>
+  </si>
+  <si>
+    <t>Střední Morava</t>
   </si>
   <si>
     <t>Střední Čechy</t>
-  </si>
-  <si>
-    <t>Jihozápad</t>
-  </si>
-  <si>
-    <t>Severozápad</t>
-  </si>
-  <si>
-    <t>Severovýchod</t>
-  </si>
-  <si>
-    <t>Jihovýchod</t>
-  </si>
-  <si>
-    <t>Střední Morava</t>
-  </si>
-  <si>
-    <t>Moravskoslezsko</t>
   </si>
 </sst>
 </file>
@@ -226,25 +226,25 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>67161.0</v>
+        <v>27620.0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.0</v>
+        <v>88.0</v>
       </c>
       <c r="E2" t="n">
-        <v>65.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="n">
-        <v>133.53</v>
+        <v>69.12</v>
       </c>
       <c r="G2" t="n">
-        <v>502.9656257020894</v>
+        <v>399.5949074074074</v>
       </c>
       <c r="H2" t="n">
-        <v>39.037433155080215</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -255,25 +255,25 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>40588.0</v>
+        <v>47178.0</v>
       </c>
       <c r="D3" t="n">
-        <v>148.0</v>
+        <v>123.0</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="F3" t="n">
-        <v>110.55</v>
+        <v>144.94</v>
       </c>
       <c r="G3" t="n">
-        <v>367.14608774310267</v>
+        <v>325.50020698219953</v>
       </c>
       <c r="H3" t="n">
-        <v>21.62162162162162</v>
+        <v>37.39837398373984</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -284,25 +284,25 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>27620.0</v>
+        <v>10442.0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.0</v>
+        <v>31.0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>69.12</v>
+        <v>22.27</v>
       </c>
       <c r="G4" t="n">
-        <v>399.5949074074074</v>
+        <v>468.8819039066008</v>
       </c>
       <c r="H4" t="n">
-        <v>13.636363636363637</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -313,25 +313,25 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>23027.0</v>
+        <v>23287.0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.0</v>
+        <v>74.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.47</v>
+        <v>53.9</v>
       </c>
       <c r="G5" t="n">
-        <v>583.4051178109958</v>
+        <v>432.0408163265306</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2727272727272725</v>
+        <v>12.162162162162161</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -342,25 +342,25 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>10442.0</v>
+        <v>16282.0</v>
       </c>
       <c r="D6" t="n">
-        <v>31.0</v>
+        <v>49.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.27</v>
+        <v>10.83</v>
       </c>
       <c r="G6" t="n">
-        <v>468.8819039066008</v>
+        <v>1503.4164358264081</v>
       </c>
       <c r="H6" t="n">
-        <v>19.35483870967742</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -371,25 +371,25 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>32478.0</v>
+        <v>47501.0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.0</v>
+        <v>136.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="F7" t="n">
-        <v>76.99</v>
+        <v>140.72</v>
       </c>
       <c r="G7" t="n">
-        <v>421.8469931159891</v>
+        <v>337.5568504832291</v>
       </c>
       <c r="H7" t="n">
-        <v>14.893617021276595</v>
+        <v>22.794117647058822</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -400,25 +400,25 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>16282.0</v>
+        <v>27259.0</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0</v>
+        <v>92.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.83</v>
+        <v>70.46</v>
       </c>
       <c r="G8" t="n">
-        <v>1503.4164358264081</v>
+        <v>386.8719841044565</v>
       </c>
       <c r="H8" t="n">
-        <v>10.204081632653061</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -429,22 +429,22 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>23287.0</v>
+        <v>22229.0</v>
       </c>
       <c r="D9" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n">
-        <v>53.9</v>
+        <v>42.25</v>
       </c>
       <c r="G9" t="n">
-        <v>432.0408163265306</v>
+        <v>526.1301775147929</v>
       </c>
       <c r="H9" t="n">
-        <v>12.162162162162161</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="I9" t="s">
         <v>39</v>
@@ -458,25 +458,25 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>22229.0</v>
+        <v>23027.0</v>
       </c>
       <c r="D10" t="n">
-        <v>75.0</v>
+        <v>55.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>42.25</v>
+        <v>39.47</v>
       </c>
       <c r="G10" t="n">
-        <v>526.1301775147929</v>
+        <v>583.4051178109958</v>
       </c>
       <c r="H10" t="n">
-        <v>13.333333333333334</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -487,25 +487,25 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>20719.0</v>
+        <v>67161.0</v>
       </c>
       <c r="D11" t="n">
-        <v>63.0</v>
+        <v>187.0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.0</v>
+        <v>65.0</v>
       </c>
       <c r="F11" t="n">
-        <v>49.15</v>
+        <v>133.53</v>
       </c>
       <c r="G11" t="n">
-        <v>421.54628687690746</v>
+        <v>502.9656257020894</v>
       </c>
       <c r="H11" t="n">
-        <v>19.047619047619047</v>
+        <v>39.037433155080215</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -516,25 +516,25 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>47178.0</v>
+        <v>40588.0</v>
       </c>
       <c r="D12" t="n">
-        <v>123.0</v>
+        <v>148.0</v>
       </c>
       <c r="E12" t="n">
-        <v>39.0</v>
+        <v>20.0</v>
       </c>
       <c r="F12" t="n">
-        <v>144.94</v>
+        <v>110.55</v>
       </c>
       <c r="G12" t="n">
-        <v>325.50020698219953</v>
+        <v>367.14608774310267</v>
       </c>
       <c r="H12" t="n">
-        <v>37.39837398373984</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -545,25 +545,25 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>27259.0</v>
+        <v>32478.0</v>
       </c>
       <c r="D13" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.46</v>
+        <v>76.99</v>
       </c>
       <c r="G13" t="n">
-        <v>386.8719841044565</v>
+        <v>421.8469931159891</v>
       </c>
       <c r="H13" t="n">
-        <v>26.08695652173913</v>
+        <v>14.893617021276595</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -574,25 +574,25 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>24445.0</v>
+        <v>20719.0</v>
       </c>
       <c r="D14" t="n">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="E14" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.55</v>
+        <v>49.15</v>
       </c>
       <c r="G14" t="n">
-        <v>432.2723253757737</v>
+        <v>421.54628687690746</v>
       </c>
       <c r="H14" t="n">
-        <v>17.142857142857142</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -603,25 +603,25 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>47501.0</v>
+        <v>24445.0</v>
       </c>
       <c r="D15" t="n">
-        <v>136.0</v>
+        <v>70.0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="F15" t="n">
-        <v>140.72</v>
+        <v>56.55</v>
       </c>
       <c r="G15" t="n">
-        <v>337.5568504832291</v>
+        <v>432.2723253757737</v>
       </c>
       <c r="H15" t="n">
-        <v>22.794117647058822</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
